--- a/final_data_pipeline/output/311423longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311423longform_elec_options.xlsx
@@ -823,7 +823,7 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L9">
         <v>8000</v>
